--- a/人物卡/人类魔法少女尤妮尔.xlsx
+++ b/人物卡/人类魔法少女尤妮尔.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13785" windowHeight="10530" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="28140" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,7 @@
     <sheet name="心灵状况" sheetId="5" r:id="rId5"/>
     <sheet name="后台数据" sheetId="6" r:id="rId6"/>
     <sheet name="少女的秘密" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡面!$A$1:$G$27</definedName>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>玩家名：</t>
   </si>
@@ -217,7 +215,7 @@
     <t>剑鞘</t>
   </si>
   <si>
-    <t>匕首</t>
+    <t>直剑</t>
   </si>
   <si>
     <t>瘴气抵抗</t>
@@ -367,39 +365,6 @@
     <t>侦查</t>
   </si>
   <si>
-    <t>闸门</t>
-  </si>
-  <si>
-    <t>进去</t>
-  </si>
-  <si>
-    <t>不进去</t>
-  </si>
-  <si>
-    <t>找圣女</t>
-  </si>
-  <si>
-    <t>偷袭怪</t>
-  </si>
-  <si>
-    <t>引出来</t>
-  </si>
-  <si>
-    <t>找到</t>
-  </si>
-  <si>
-    <t>找不到</t>
-  </si>
-  <si>
-    <t>偷袭成功</t>
-  </si>
-  <si>
-    <t>偷袭失败</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
     <t>血液</t>
   </si>
   <si>
@@ -682,162 +647,6 @@
     <t>类别</t>
   </si>
   <si>
-    <t>没有在战利品遭遇中消耗道具</t>
-  </si>
-  <si>
-    <t>战利品遭遇中消耗道具后失败</t>
-  </si>
-  <si>
-    <t>三餐都有进食</t>
-  </si>
-  <si>
-    <t>一天内食用超过2次优质食物</t>
-  </si>
-  <si>
-    <t>消除性欲</t>
-  </si>
-  <si>
-    <t>使用道具消除性欲</t>
-  </si>
-  <si>
-    <t>没有在战利品遭遇中受伤</t>
-  </si>
-  <si>
-    <t>战利品遭遇受伤</t>
-  </si>
-  <si>
-    <t>顺利购买商品</t>
-  </si>
-  <si>
-    <t>陷入危急状态时，没有对应物品</t>
-  </si>
-  <si>
-    <t>没有挨饿度过一天</t>
-  </si>
-  <si>
-    <t>食用优质食物</t>
-  </si>
-  <si>
-    <t>使用道具解除负面状态</t>
-  </si>
-  <si>
-    <t>在危机状态之外使用道具</t>
-  </si>
-  <si>
-    <t>性欲不超过50度过1天</t>
-  </si>
-  <si>
-    <t>性欲超过50度过一天</t>
-  </si>
-  <si>
-    <t>5级不能做的事</t>
-  </si>
-  <si>
-    <t>5级可以做的事</t>
-  </si>
-  <si>
-    <t>脱离战斗锁</t>
-  </si>
-  <si>
-    <t>打败强敌</t>
-  </si>
-  <si>
-    <t>防御超过2次</t>
-  </si>
-  <si>
-    <t>损失一半生命力的情况下幸存</t>
-  </si>
-  <si>
-    <t>没有通过挑战</t>
-  </si>
-  <si>
-    <t>通过了挑战</t>
-  </si>
-  <si>
-    <t>没有破解谜题</t>
-  </si>
-  <si>
-    <t>暴力破解了谜题</t>
-  </si>
-  <si>
-    <t>打败弱敌</t>
-  </si>
-  <si>
-    <t>达成Overkill</t>
-  </si>
-  <si>
-    <t>逃跑</t>
-  </si>
-  <si>
-    <t>在强敌战中幸存</t>
-  </si>
-  <si>
-    <t>拒绝了挑战</t>
-  </si>
-  <si>
-    <t>从挑战中幸存</t>
-  </si>
-  <si>
-    <t>没有揭露谜题</t>
-  </si>
-  <si>
-    <t>破解了谜题</t>
-  </si>
-  <si>
-    <t>从弱敌战中逃跑</t>
-  </si>
-  <si>
-    <t>战斗得胜</t>
-  </si>
-  <si>
-    <t>没有从强敌战逃跑</t>
-  </si>
-  <si>
-    <t>从战斗中幸存</t>
-  </si>
-  <si>
-    <t>没有拒绝挑战</t>
-  </si>
-  <si>
-    <t>以好结果完成了社交</t>
-  </si>
-  <si>
-    <t>尝试破解谜题且失败</t>
-  </si>
-  <si>
-    <t>揭露了谜题</t>
-  </si>
-  <si>
-    <t>没有从战斗中逃跑</t>
-  </si>
-  <si>
-    <t>从弱敌战斗中幸存</t>
-  </si>
-  <si>
-    <t>受到伤害超过2次</t>
-  </si>
-  <si>
-    <t>生命力在一半以上的情况下幸存</t>
-  </si>
-  <si>
-    <t>遭遇挑战</t>
-  </si>
-  <si>
-    <t>没有以坏结果完成社交</t>
-  </si>
-  <si>
-    <t>遭遇惊吓后没有逃跑</t>
-  </si>
-  <si>
-    <t>遭遇惊吓后没有受到伤害</t>
-  </si>
-  <si>
-    <t>造成Overkill</t>
-  </si>
-  <si>
-    <t>脱离战斗</t>
-  </si>
-  <si>
     <t>我6</t>
   </si>
   <si>
@@ -880,22 +689,28 @@
     <t>林晨</t>
   </si>
   <si>
-    <t>哥布林A</t>
-  </si>
-  <si>
-    <t>哥布林B</t>
-  </si>
-  <si>
-    <t>哥布林C</t>
-  </si>
-  <si>
-    <t>哥布林王</t>
-  </si>
-  <si>
-    <t>哥布林D</t>
-  </si>
-  <si>
-    <t>哥布林E</t>
+    <t>希望之种</t>
+  </si>
+  <si>
+    <t>卯</t>
+  </si>
+  <si>
+    <t>传送门（强盗）</t>
+  </si>
+  <si>
+    <t>护卫队（X4）</t>
+  </si>
+  <si>
+    <t>蛇娘</t>
+  </si>
+  <si>
+    <t>圣女</t>
+  </si>
+  <si>
+    <t>爱</t>
+  </si>
+  <si>
+    <t>共鸣之种</t>
   </si>
 </sst>
 </file>
@@ -909,8 +724,52 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -920,23 +779,39 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="22"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8.4"/>
-      <color indexed="0"/>
-      <name val="Verdana"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -954,6 +829,21 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -961,16 +851,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -986,72 +876,23 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1063,13 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,19 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,25 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,13 +952,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,12 +982,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1269,34 +1110,122 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,17 +1250,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,6 +1288,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1379,7 +1341,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1388,147 +1350,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1562,6 +1539,81 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1574,34 +1626,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="警告文本" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -2004,104 +2056,12 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="6:8">
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="8:9">
-      <c r="H4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8">
-      <c r="H5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8">
-      <c r="H6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2113,7 +2073,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2133,24 +2093,24 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2165,29 +2125,30 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <f>VLOOKUP(F2,后台数据!A1:B25,2,TRUE)</f>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="10"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -2201,9 +2162,9 @@
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(D2,后台数据!A26:B50,2,2)</f>
-        <v>T1</v>
-      </c>
-      <c r="K3" s="9" t="s">
+        <v>T2</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L3" t="s">
@@ -2212,13 +2173,13 @@
       <c r="M3">
         <v>100</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="19">
         <v>2</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="10"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
@@ -2230,10 +2191,10 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="L4" t="s">
@@ -2242,17 +2203,17 @@
       <c r="M4">
         <v>100</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="19">
         <v>1</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="10"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" ht="14.25" spans="1:18">
       <c r="A5" t="s">
@@ -2264,7 +2225,7 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="L5" t="s">
@@ -2273,35 +2234,35 @@
       <c r="M5">
         <v>100</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="19">
         <v>2</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="10"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <f>(IFERROR(VLOOKUP(卡面!D2,后台数据!G1:H12,2,TRUE),0)+45)-SUM(B7:B14)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6">
         <v>14</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="L6" t="s">
@@ -2310,40 +2271,40 @@
       <c r="M6">
         <v>100</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="19">
         <v>1</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="10"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="10">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="19">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="10">
         <f>ROUNDUP(SUM(B7:B8)/4,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="20">
         <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
         <v>3</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="L7" t="s">
@@ -2352,24 +2313,24 @@
       <c r="M7">
         <v>100</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="19">
         <v>2</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="10"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="19">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="K8" s="9" t="s">
+      <c r="C8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="K8" s="14" t="s">
         <v>44</v>
       </c>
       <c r="L8" t="s">
@@ -2378,40 +2339,40 @@
       <c r="M8">
         <v>100</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="19">
         <v>1</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="10"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="19">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="10">
         <f>ROUNDUP(SUM(B11:B12)/4,0)</f>
         <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="20">
         <f>ROUNDUP(SUM(B13:B14)/4,0)</f>
         <v>3</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="14" t="s">
         <v>50</v>
       </c>
       <c r="L9" t="s">
@@ -2420,26 +2381,26 @@
       <c r="M9">
         <v>100</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="19">
         <v>1</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="10"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" ht="14.25" spans="1:18">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="19">
         <v>6</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="K10" s="9" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="K10" s="14" t="s">
         <v>53</v>
       </c>
       <c r="L10" t="s">
@@ -2448,57 +2409,57 @@
       <c r="M10">
         <v>100</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="19">
         <v>1</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="10"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" ht="14.25" spans="1:18">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="19">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="12">
         <f>13-SUM(D12,F12,D14,F14)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="K11" s="11" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="K11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="17">
         <v>100</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="17">
         <v>2</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="19">
         <v>5</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D12">
@@ -2507,17 +2468,17 @@
       <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="15">
         <v>3</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
       <c r="K12" t="s">
         <v>64</v>
       </c>
@@ -2534,220 +2495,220 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="19">
         <v>6</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="19"/>
       <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="17">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="18">
         <v>3</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="G14" s="19"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="7">
-        <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+(D2-1)*5,25+(D2-1)*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
+      <c r="B15" s="12">
+        <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+(D2-1)*5,25+(D2-1)*3)-SUM(SUM(B16:B27),SUM(D16:D27)))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="22">
+        <v>15</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="D16" s="24">
+        <v>10</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" ht="14.25" spans="1:10">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" s="26">
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="15">
         <v>0</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="28">
         <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="15">
         <v>0</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="29">
         <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="15">
         <v>0</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="14"/>
       <c r="H19" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="31">
         <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="15">
         <v>0</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="G20" s="14"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="33">
         <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="15">
         <v>0</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="G21" s="14"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" ht="14.25" spans="1:10">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="35">
         <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="15">
         <v>0</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="10"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="37">
         <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="15">
         <v>0</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="8"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="39">
         <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="15">
         <v>0</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="14" t="s">
         <v>92</v>
       </c>
       <c r="I24" t="s">
@@ -2762,22 +2723,22 @@
       <c r="O24" t="s">
         <v>96</v>
       </c>
-      <c r="P24" s="10"/>
+      <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="41">
         <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="15">
         <v>0</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="14" t="s">
         <v>99</v>
       </c>
       <c r="I25" t="s">
@@ -2792,54 +2753,54 @@
       <c r="O25" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="10"/>
+      <c r="P25" s="15"/>
     </row>
     <row r="26" ht="14.25" spans="1:16">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="43">
         <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="15">
         <v>0</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="17"/>
+      <c r="K26" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12" t="s">
+      <c r="L26" s="17"/>
+      <c r="M26" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12" t="s">
+      <c r="N26" s="17"/>
+      <c r="O26" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="P26" s="13"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="45">
         <v>0</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="13">
-        <v>0</v>
+      <c r="D27" s="18">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2863,11 +2824,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+      <formula1>后台数据!$C$22:$C$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"男性,女性,双成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>后台数据!$C$22:$C$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"战士,骑士,巫剑,游侠,猎人,刺客,修女,巫女,猎巫人,侍从,女仆,侍剑,炼金术师,构筑师,枪卫,魔法师,司书,魔法少女"</formula1>
@@ -2883,61 +2844,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C1:G5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="6:6">
-      <c r="F1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="5:7">
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="4:7">
-      <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="5:6">
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2956,213 +2870,213 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:11">
+      <c r="B7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="14"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="14.25" spans="7:11">
+      <c r="G8" s="14"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="6" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="G9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="9" t="s">
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G11" s="14"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="C13" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="D13" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="G13" s="14"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="G4" s="9"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="9" t="s">
+      <c r="C15" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="9" t="s">
+      <c r="D15" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="9"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" ht="14.25" spans="2:11">
-      <c r="B7" s="11" t="s">
+      <c r="G15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" ht="14.25" spans="7:11">
-      <c r="G8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="6" t="s">
+      <c r="D16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:11">
+      <c r="B17" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="G9" s="9" t="s">
+      <c r="C17" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="G12" s="9"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" ht="14.25" spans="2:11">
-      <c r="B17" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="K17" s="10"/>
+      <c r="G17" s="14"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="7:11">
-      <c r="G18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="G18" s="14"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="7:11">
-      <c r="G19" s="9"/>
-      <c r="K19" s="10"/>
+      <c r="G19" s="14"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="7:11">
-      <c r="G20" s="9"/>
-      <c r="K20" s="10"/>
+      <c r="G20" s="14"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="7:11">
-      <c r="G21" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="10"/>
+      <c r="G21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="7:11">
-      <c r="G22" s="9"/>
-      <c r="K22" s="10"/>
+      <c r="G22" s="14"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="7:11">
-      <c r="G23" s="9"/>
-      <c r="K23" s="10"/>
+      <c r="G23" s="14"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="7:11">
-      <c r="G24" s="9"/>
-      <c r="K24" s="10"/>
+      <c r="G24" s="14"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="7:11">
-      <c r="G25" s="9"/>
-      <c r="K25" s="10"/>
+      <c r="G25" s="14"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" ht="14.25" spans="7:11">
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3183,179 +3097,179 @@
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="H2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="B2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="L3" s="10"/>
+      <c r="B3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="H4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="H5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="H6" s="9"/>
-      <c r="L6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" ht="14.25" spans="2:12">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" ht="14.25"/>
     <row r="15" spans="2:12">
-      <c r="B15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="H15" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
+      <c r="B15" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="L16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="L17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="L18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="L20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="L21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="H21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="9"/>
-      <c r="L22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="9"/>
-      <c r="L23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="9"/>
-      <c r="L24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="H24" s="14"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" ht="14.25" spans="2:12">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="H25" s="9"/>
-      <c r="L25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="H25" s="14"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" ht="14.25" spans="8:12">
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3369,17 +3283,17 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="5"/>
+    <col min="1" max="1" width="11.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5">
+      <c r="A1" s="10">
         <v>0</v>
       </c>
       <c r="B1">
@@ -3389,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -3399,7 +3313,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5">
+      <c r="A2" s="10">
         <v>350</v>
       </c>
       <c r="B2">
@@ -3409,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3419,7 +3333,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <f>A2*1.2</f>
         <v>420</v>
       </c>
@@ -3430,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -3440,7 +3354,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A25" si="0">A3*1.2</f>
         <v>504</v>
       </c>
@@ -3451,7 +3365,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3461,7 +3375,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <f>A4*1.2</f>
         <v>604.8</v>
       </c>
@@ -3472,7 +3386,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -3482,7 +3396,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <f>A5*1.2</f>
         <v>725.76</v>
       </c>
@@ -3490,7 +3404,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3506,7 +3420,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <f>A6*1.2</f>
         <v>870.912</v>
       </c>
@@ -3514,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -3530,7 +3444,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <f>A7*1.2</f>
         <v>1045.0944</v>
       </c>
@@ -3538,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3554,7 +3468,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <f>A8*1.2</f>
         <v>1254.11328</v>
       </c>
@@ -3562,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3578,7 +3492,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5">
+      <c r="A10" s="10">
         <f>A9*1.2</f>
         <v>1504.935936</v>
       </c>
@@ -3586,7 +3500,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3602,7 +3516,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5">
+      <c r="A11" s="10">
         <f>A10*1.2</f>
         <v>1805.9231232</v>
       </c>
@@ -3610,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -3626,7 +3540,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5">
+      <c r="A12" s="10">
         <f>A11*1.2</f>
         <v>2167.10774784</v>
       </c>
@@ -3634,7 +3548,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -3650,7 +3564,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5">
+      <c r="A13" s="10">
         <f>A12*1.2</f>
         <v>2600.529297408</v>
       </c>
@@ -3658,7 +3572,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -3670,11 +3584,11 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5">
+      <c r="A14" s="10">
         <f>A13*1.2</f>
         <v>3120.6351568896</v>
       </c>
@@ -3682,7 +3596,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -3694,11 +3608,11 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5">
+      <c r="A15" s="10">
         <f>A14*1.2</f>
         <v>3744.76218826752</v>
       </c>
@@ -3706,7 +3620,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -3718,11 +3632,11 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5">
+      <c r="A16" s="10">
         <f>A15*1.2</f>
         <v>4493.71462592102</v>
       </c>
@@ -3730,7 +3644,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3739,11 +3653,11 @@
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5">
+      <c r="A17" s="10">
         <f>A16*1.2</f>
         <v>5392.45755110523</v>
       </c>
@@ -3751,17 +3665,17 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="5">
+      <c r="A18" s="10">
         <f>A17*1.2</f>
         <v>6470.94906132627</v>
       </c>
@@ -3769,17 +3683,17 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G18">
         <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5">
+      <c r="A19" s="10">
         <f>A18*1.2</f>
         <v>7765.13887359152</v>
       </c>
@@ -3787,17 +3701,17 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5">
+      <c r="A20" s="10">
         <f>A19*1.2</f>
         <v>9318.16664830983</v>
       </c>
@@ -3805,17 +3719,17 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5">
+      <c r="A21" s="10">
         <f>A20*1.2</f>
         <v>11181.7999779718</v>
       </c>
@@ -3830,11 +3744,11 @@
         <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5">
+      <c r="A22" s="10">
         <f>A21*1.2</f>
         <v>13418.1599735662</v>
       </c>
@@ -3842,7 +3756,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3852,11 +3766,11 @@
         <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5">
+      <c r="A23" s="10">
         <f>A22*1.2</f>
         <v>16101.7919682794</v>
       </c>
@@ -3874,11 +3788,11 @@
         <v>467</v>
       </c>
       <c r="H23" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5">
+      <c r="A24" s="10">
         <f>A23*1.2</f>
         <v>19322.1503619353</v>
       </c>
@@ -3886,14 +3800,14 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5">
+      <c r="A25" s="10">
         <f>A24*1.2</f>
         <v>23186.5804343223</v>
       </c>
@@ -3901,7 +3815,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -3912,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -3926,10 +3840,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3940,10 +3854,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -3954,10 +3868,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -3968,10 +3882,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -3982,10 +3896,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D31">
         <v>9</v>
@@ -3996,10 +3910,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -4010,10 +3924,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -4024,10 +3938,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D34">
         <v>12</v>
@@ -4038,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D35">
         <v>13</v>
@@ -4052,10 +3966,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D36">
         <v>14</v>
@@ -4066,10 +3980,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -4080,10 +3994,10 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -4094,10 +4008,10 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -4108,10 +4022,10 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D40">
         <v>18</v>
@@ -4122,7 +4036,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4130,7 +4044,7 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4138,7 +4052,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4146,7 +4060,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4154,7 +4068,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4162,7 +4076,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4170,7 +4084,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4178,7 +4092,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4186,7 +4100,7 @@
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4194,7 +4108,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4225,18 +4139,18 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4246,15 +4160,15 @@
         <v>T1</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4264,15 +4178,15 @@
         <v>T1</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4282,15 +4196,15 @@
         <v>T1</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4300,15 +4214,15 @@
         <v>T1</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4318,125 +4232,125 @@
         <v>T1</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4448,352 +4362,182 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="9" width="4.25" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="4.25" customWidth="1"/>
+    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="8.875" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="20" width="4.25" customWidth="1"/>
+    <col min="21" max="21" width="5.125" customWidth="1"/>
+    <col min="22" max="23" width="4.25" customWidth="1"/>
+    <col min="24" max="24" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="M1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="T2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="M3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>233</v>
+      <c r="C4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="13:13">
+      <c r="M5" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="3">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>